--- a/workbooks/SensorDatabase2.xlsx
+++ b/workbooks/SensorDatabase2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -303,56 +303,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +671,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,340 +688,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>5</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>90</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11">
         <v>14</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10">
+      <c r="I2" s="11"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="9">
         <v>12.5</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>5</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>90</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
         <v>14</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10">
+      <c r="I3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="9">
         <v>12.5</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>5</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12">
-        <v>6</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11">
+        <v>6</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="12">
-        <v>6</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="11">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10">
+      <c r="K4" s="25"/>
+      <c r="L4" s="9">
         <v>0.8</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>5</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12">
-        <v>6</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11">
+        <v>6</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="12">
-        <v>6</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="11">
+        <v>6</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10">
+      <c r="K5" s="25"/>
+      <c r="L5" s="9">
         <v>0.8</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>3</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>40</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12">
-        <v>6</v>
-      </c>
-      <c r="H6" s="12">
-        <v>6</v>
-      </c>
-      <c r="I6" s="12">
-        <v>6</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10">
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11">
+        <v>6</v>
+      </c>
+      <c r="H6" s="11">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11">
+        <v>6</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="9">
         <v>1.2</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>40</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12">
-        <v>6</v>
-      </c>
-      <c r="H7" s="12">
-        <v>6</v>
-      </c>
-      <c r="I7" s="12">
-        <v>6</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11">
+        <v>6</v>
+      </c>
+      <c r="I7" s="11">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10">
         <v>4</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10">
+      <c r="K7" s="25"/>
+      <c r="L7" s="9">
         <v>0.8</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>40</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12">
-        <v>6</v>
-      </c>
-      <c r="H8" s="12">
-        <v>6</v>
-      </c>
-      <c r="I8" s="12">
-        <v>6</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
+        <v>6</v>
+      </c>
+      <c r="H8" s="11">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11">
+        <v>6</v>
+      </c>
+      <c r="J8" s="10">
         <v>4</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10">
+      <c r="K8" s="25"/>
+      <c r="L8" s="9">
         <v>0.8</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>4</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>35</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="12">
-        <v>6</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="11">
+        <v>6</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10">
+      <c r="K9" s="25"/>
+      <c r="L9" s="9">
         <v>1.5</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="9"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K11" s="9"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K12" s="9"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K13" s="9"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K14" s="9"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K15" s="9"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K16" s="9"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,33 @@
   <mergeCells count="1">
     <mergeCell ref="K1:K16"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 L1:L1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Supported Data Type'!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1060,60 +1086,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="23" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>11</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>12</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1146,47 +1172,72 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="24" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/workbooks/SensorDatabase2.xlsx
+++ b/workbooks/SensorDatabase2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Platform Restrictions</t>
   </si>
   <si>
-    <t>10,11,12,13,14,15</t>
-  </si>
-  <si>
     <t>Swath Size (km)</t>
   </si>
   <si>
@@ -70,15 +67,9 @@
     <t>X-Band SAR</t>
   </si>
   <si>
-    <t>2,5,6,10,11,12,13,14,15</t>
-  </si>
-  <si>
     <t>L-Band SAR</t>
   </si>
   <si>
-    <t>2,5,6,10,11,12,13,14,16</t>
-  </si>
-  <si>
     <t>4K Video</t>
   </si>
   <si>
@@ -161,6 +152,12 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>1,2,5,6,9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14</t>
   </si>
 </sst>
 </file>
@@ -671,7 +668,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,13 +716,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -733,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="13">
         <v>5</v>
@@ -742,7 +739,7 @@
         <v>90</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -764,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="13">
         <v>5</v>
@@ -773,7 +770,7 @@
         <v>90</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -795,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -809,13 +806,13 @@
         <v>6</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4" s="11">
         <v>6</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="9">
@@ -830,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -844,13 +841,13 @@
         <v>6</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="11">
         <v>6</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="9">
@@ -865,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="13">
         <v>3</v>
@@ -898,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -933,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -968,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="13">
         <v>4</v>
@@ -977,18 +974,18 @@
         <v>35</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I9" s="11">
         <v>6</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K9" s="25"/>
       <c r="L9" s="9">
@@ -1094,53 +1091,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="21">
         <v>11</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="21">
         <v>12</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1189,11 +1186,11 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="22" t="s">
@@ -1202,10 +1199,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -1213,10 +1210,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="6">
         <v>2</v>
@@ -1224,7 +1221,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
